--- a/spring_09_07.xlsx
+++ b/spring_09_07.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\__202305__빅데이터융합sw개발자 최유란\5. Spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Administrator\Desktop\국비\5. Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BCBD86-60CA-4218-A9AD-D616A8DCD28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997DD41E-E830-4DF6-8A53-2F3AC0B43AE4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EA1E20DE-D8EE-490E-A4B7-9EF579F30454}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EA1E20DE-D8EE-490E-A4B7-9EF579F30454}"/>
   </bookViews>
   <sheets>
     <sheet name="어노테이션" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>@Controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Spring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>컨트롤러 함수가 수행된 이후, 화면을 보여줄 viewName을 지정한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -340,6 +332,10 @@
   </si>
   <si>
     <t>파라미터 이름을 key, 값을 value로 받는다 @RequestParam 필수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,9 +674,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -692,15 +697,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1107,6 +1103,9 @@
       <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="13" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="11"/>
@@ -1131,6 +1130,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1139,7 +1139,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1175,7 +1175,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1227,26 +1227,26 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>42</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1275,7 +1275,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -1286,11 +1286,11 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
@@ -1299,38 +1299,38 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" s="16"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="16"/>
     </row>
     <row r="7" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="9" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
@@ -1352,142 +1352,148 @@
       <c r="B10" s="21">
         <v>200</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="35"/>
+      <c r="C10" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="31"/>
       <c r="E10" s="19"/>
-      <c r="F10" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
+      <c r="F10" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="22">
         <v>301</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="22">
         <v>302</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="27"/>
       <c r="F12" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="22">
         <v>400</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="27"/>
       <c r="F13" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="22">
         <v>401</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="27"/>
       <c r="F14" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="22">
         <v>403</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="27"/>
       <c r="F15" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="22">
         <v>404</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="27"/>
       <c r="F16" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="22">
         <v>405</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="27"/>
       <c r="F17" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="22">
         <v>500</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="27"/>
       <c r="F18" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="23">
         <v>502</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="29"/>
+      <c r="C19" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="32"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
+      <c r="F19" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="C16:D16"/>
@@ -1504,12 +1510,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
